--- a/Files/Vaccine_October 1, 2015.xlsx
+++ b/Files/Vaccine_October 1, 2015.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="347">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Kinrix</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">10 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">$83.50</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">$28.77</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -227,8 +227,7 @@
     <t xml:space="preserve">58160-0815-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -246,8 +245,7 @@
     <t xml:space="preserve">58160-0820-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -265,7 +263,7 @@
     <t xml:space="preserve">$23.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -292,7 +290,7 @@
     <t xml:space="preserve">$27.49</t>
   </si>
   <si>
-    <t xml:space="preserve">HIBMENCY [3]</t>
+    <t xml:space="preserve">HIBMENCY </t>
   </si>
   <si>
     <t xml:space="preserve">MENHIBRIX</t>
@@ -307,7 +305,7 @@
     <t xml:space="preserve">$23.60</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant [5]</t>
+    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil</t>
@@ -322,7 +320,7 @@
     <t xml:space="preserve">$147.005</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -337,7 +335,7 @@
     <t xml:space="preserve">$163.09</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">Cervarix</t>
@@ -355,7 +353,7 @@
     <t xml:space="preserve">$128.75</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -394,7 +392,7 @@
     <t xml:space="preserve">1 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -421,7 +419,7 @@
     <t xml:space="preserve">$117.418</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -436,7 +434,7 @@
     <t xml:space="preserve">$59.911</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -451,8 +449,7 @@
     <t xml:space="preserve">$168.469</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -482,7 +479,7 @@
     <t xml:space="preserve">$72.384</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -506,7 +503,7 @@
     <t xml:space="preserve">25 pack - 1 dose tube</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -521,7 +518,7 @@
     <t xml:space="preserve">$106.57</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -539,7 +536,7 @@
     <t xml:space="preserve">49281-0215-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -575,7 +572,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -590,7 +587,7 @@
     <t xml:space="preserve">$100.678</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -611,7 +608,7 @@
     <t xml:space="preserve">$59.99</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -632,16 +629,13 @@
     <t xml:space="preserve">$63.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$54.32</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recombivax HB</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4995-41</t>
@@ -677,7 +671,7 @@
     <t xml:space="preserve">58160-0821-52</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult [5]</t>
+    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$92.84</t>
@@ -686,19 +680,19 @@
     <t xml:space="preserve">$147.01</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$121.64</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">$86.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose vials</t>
@@ -710,7 +704,7 @@
     <t xml:space="preserve">$59.91</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate </t>
   </si>
   <si>
     <t xml:space="preserve">$71.65</t>
@@ -734,8 +728,7 @@
     <t xml:space="preserve">$122.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Adult)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Adult)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -765,7 +758,7 @@
     <t xml:space="preserve">$26.59</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids[3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids</t>
   </si>
   <si>
     <t xml:space="preserve">$14.419</t>
@@ -786,7 +779,7 @@
     <t xml:space="preserve">$20.18</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$68.20</t>
@@ -810,8 +803,7 @@
     <t xml:space="preserve">$187.89</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -829,8 +821,7 @@
     <t xml:space="preserve">200-2015-61387</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0623-15</t>
@@ -839,14 +830,10 @@
     <t xml:space="preserve">$13.15</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0515-25</t>
@@ -858,13 +845,10 @@
     <t xml:space="preserve">$21.70</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-No-Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0415-50</t>
@@ -885,16 +869,13 @@
     <t xml:space="preserve">$17.97</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent
-Preservative Free</t>
+    <t xml:space="preserve">Fluarix Quadrivalent Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0903-52</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack- 1 dose
-TipLok syringe</t>
+    <t xml:space="preserve">10 pack- 1 dose TipLok syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$14.05</t>
@@ -906,8 +887,7 @@
     <t xml:space="preserve">200-2015-61388</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0898-11</t>
@@ -916,8 +896,7 @@
     <t xml:space="preserve">$15.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -938,8 +917,7 @@
     <t xml:space="preserve">200-2015-61390</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative Free</t>
+    <t xml:space="preserve">Fluvirin Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">66521-0118-02</t>
@@ -954,13 +932,10 @@
     <t xml:space="preserve">$15.232</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent
-No Preservative</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0302-10</t>
@@ -981,21 +956,15 @@
     <t xml:space="preserve">200-2015-61386</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0015-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
-  </si>
-  <si>
     <t xml:space="preserve">$7.80</t>
   </si>
   <si>
@@ -1026,9 +995,7 @@
     <t xml:space="preserve">$12.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Quadrivalent No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$13.575</t>
@@ -1037,13 +1004,10 @@
     <t xml:space="preserve">$12.965</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 18 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flucelvax
-Preservative Free
-Antibiotic free</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flucelvax Preservative Free Antibiotic free</t>
   </si>
   <si>
     <t xml:space="preserve">62577-0614-01</t>
@@ -1059,9 +1023,6 @@
   </si>
   <si>
     <t xml:space="preserve">200-2015-61393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">$11.40</t>
@@ -2727,19 +2688,19 @@
         <v>206</v>
       </c>
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
         <v>207</v>
-      </c>
-      <c r="C8" t="s">
-        <v>208</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" t="s">
         <v>209</v>
-      </c>
-      <c r="F8" t="s">
-        <v>210</v>
       </c>
       <c r="G8" s="1">
         <v>42551</v>
@@ -2756,19 +2717,19 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" t="s">
         <v>211</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>212</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>213</v>
-      </c>
-      <c r="F9" t="s">
-        <v>214</v>
       </c>
       <c r="G9" s="1">
         <v>42551</v>
@@ -2785,19 +2746,19 @@
         <v>206</v>
       </c>
       <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" t="s">
         <v>215</v>
-      </c>
-      <c r="C10" t="s">
-        <v>216</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="1">
         <v>42551</v>
@@ -2814,19 +2775,19 @@
         <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" s="1">
         <v>42551</v>
@@ -2840,7 +2801,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>97</v>
@@ -2852,10 +2813,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
         <v>220</v>
-      </c>
-      <c r="F12" t="s">
-        <v>221</v>
       </c>
       <c r="G12" s="1">
         <v>42551</v>
@@ -2869,7 +2830,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
@@ -2881,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
         <v>105</v>
@@ -2898,7 +2859,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
@@ -2910,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -2927,7 +2888,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
         <v>135</v>
@@ -2936,13 +2897,13 @@
         <v>136</v>
       </c>
       <c r="D15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" t="s">
         <v>227</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>228</v>
-      </c>
-      <c r="F15" t="s">
-        <v>229</v>
       </c>
       <c r="G15" s="1">
         <v>42551</v>
@@ -2956,7 +2917,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
         <v>130</v>
@@ -2968,7 +2929,7 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
         <v>133</v>
@@ -2985,7 +2946,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
         <v>126</v>
@@ -2997,7 +2958,7 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
         <v>129</v>
@@ -3006,10 +2967,10 @@
         <v>42551</v>
       </c>
       <c r="H17" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" t="s">
         <v>233</v>
-      </c>
-      <c r="I17" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18">
@@ -3026,7 +2987,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -3038,7 +2999,7 @@
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
@@ -3055,7 +3016,7 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
         <v>122</v>
@@ -3084,7 +3045,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F20" t="s">
         <v>122</v>
@@ -3101,22 +3062,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" t="s">
         <v>238</v>
-      </c>
-      <c r="B21" t="s">
-        <v>239</v>
       </c>
       <c r="C21" t="s">
         <v>146</v>
       </c>
       <c r="D21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" t="s">
         <v>240</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>241</v>
-      </c>
-      <c r="F21" t="s">
-        <v>242</v>
       </c>
       <c r="G21" s="1">
         <v>42551</v>
@@ -3125,7 +3086,7 @@
         <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
@@ -3136,16 +3097,16 @@
         <v>150</v>
       </c>
       <c r="C22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" t="s">
         <v>243</v>
       </c>
-      <c r="D22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>244</v>
-      </c>
-      <c r="F22" t="s">
-        <v>245</v>
       </c>
       <c r="G22" s="1">
         <v>42551</v>
@@ -3168,13 +3129,13 @@
         <v>151</v>
       </c>
       <c r="D23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" t="s">
         <v>246</v>
       </c>
-      <c r="E23" t="s">
-        <v>247</v>
-      </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G23" s="1">
         <v>42551</v>
@@ -3188,7 +3149,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
         <v>168</v>
@@ -3200,24 +3161,24 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" t="s">
         <v>249</v>
-      </c>
-      <c r="F24" t="s">
-        <v>250</v>
       </c>
       <c r="G24" s="1">
         <v>42551</v>
       </c>
       <c r="H24" t="s">
+        <v>232</v>
+      </c>
+      <c r="I24" t="s">
         <v>233</v>
-      </c>
-      <c r="I24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s">
         <v>168</v>
@@ -3229,19 +3190,19 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" s="1">
         <v>42551</v>
       </c>
       <c r="H25" t="s">
+        <v>232</v>
+      </c>
+      <c r="I25" t="s">
         <v>233</v>
-      </c>
-      <c r="I25" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="26">
@@ -3258,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" t="s">
         <v>182</v>
@@ -3267,10 +3228,10 @@
         <v>42551</v>
       </c>
       <c r="H26" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" t="s">
         <v>233</v>
-      </c>
-      <c r="I26" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -3287,7 +3248,7 @@
         <v>184</v>
       </c>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27" t="s">
         <v>182</v>
@@ -3296,10 +3257,10 @@
         <v>42551</v>
       </c>
       <c r="H27" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27" t="s">
         <v>233</v>
-      </c>
-      <c r="I27" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="28">
@@ -3316,7 +3277,7 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F28" t="s">
         <v>177</v>
@@ -3345,7 +3306,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F29" t="s">
         <v>177</v>
@@ -3362,7 +3323,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s">
         <v>186</v>
@@ -3374,10 +3335,10 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" t="s">
         <v>256</v>
-      </c>
-      <c r="F30" t="s">
-        <v>257</v>
       </c>
       <c r="G30" s="1">
         <v>42551</v>
@@ -3391,22 +3352,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" t="s">
         <v>258</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>259</v>
-      </c>
-      <c r="C31" t="s">
-        <v>260</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" t="s">
         <v>261</v>
-      </c>
-      <c r="F31" t="s">
-        <v>262</v>
       </c>
       <c r="G31" s="1">
         <v>42551</v>
@@ -3465,22 +3426,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
         <v>263</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>264</v>
-      </c>
-      <c r="C2" t="s">
-        <v>265</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
       </c>
       <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
         <v>266</v>
-      </c>
-      <c r="F2" t="s">
-        <v>267</v>
       </c>
       <c r="G2" s="1">
         <v>42428</v>
@@ -3489,24 +3450,24 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
         <v>269</v>
-      </c>
-      <c r="C3" t="s">
-        <v>270</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -3518,27 +3479,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
         <v>272</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>273</v>
-      </c>
-      <c r="C4" t="s">
-        <v>274</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" t="s">
         <v>275</v>
-      </c>
-      <c r="F4" t="s">
-        <v>276</v>
       </c>
       <c r="G4" s="1">
         <v>42428</v>
@@ -3547,27 +3508,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
         <v>277</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>278</v>
-      </c>
-      <c r="C5" t="s">
-        <v>279</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" t="s">
         <v>280</v>
-      </c>
-      <c r="F5" t="s">
-        <v>281</v>
       </c>
       <c r="G5" s="1">
         <v>42428</v>
@@ -3576,27 +3537,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
         <v>277</v>
       </c>
-      <c r="B6" t="s">
-        <v>278</v>
-      </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" t="s">
         <v>283</v>
-      </c>
-      <c r="F6" t="s">
-        <v>284</v>
       </c>
       <c r="G6" s="1">
         <v>42428</v>
@@ -3605,27 +3566,27 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
         <v>285</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>286</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>287</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>288</v>
-      </c>
-      <c r="F7" t="s">
-        <v>289</v>
       </c>
       <c r="G7" s="1">
         <v>42428</v>
@@ -3634,27 +3595,27 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
         <v>291</v>
-      </c>
-      <c r="C8" t="s">
-        <v>292</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G8" s="1">
         <v>42428</v>
@@ -3663,152 +3624,152 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
         <v>294</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>296</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
       </c>
       <c r="E9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" t="s">
         <v>297</v>
-      </c>
-      <c r="F9" t="s">
-        <v>298</v>
       </c>
       <c r="G9" s="1">
         <v>42428</v>
       </c>
       <c r="H9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I9" t="s">
         <v>299</v>
-      </c>
-      <c r="I9" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" t="s">
         <v>301</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>302</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>303</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>304</v>
-      </c>
-      <c r="F10" t="s">
-        <v>305</v>
       </c>
       <c r="G10" s="1">
         <v>42428</v>
       </c>
       <c r="H10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10" t="s">
         <v>299</v>
-      </c>
-      <c r="I10" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
         <v>306</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>307</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>308</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>309</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>310</v>
-      </c>
-      <c r="F11" t="s">
-        <v>311</v>
       </c>
       <c r="G11" s="1">
         <v>42428</v>
       </c>
       <c r="H11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" t="s">
         <v>312</v>
-      </c>
-      <c r="I11" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" t="s">
         <v>314</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>315</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
         <v>316</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>317</v>
-      </c>
-      <c r="E12" t="s">
-        <v>318</v>
-      </c>
-      <c r="F12" t="s">
-        <v>319</v>
       </c>
       <c r="G12" s="1">
         <v>42428</v>
       </c>
       <c r="H12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G13" s="1">
         <v>42428</v>
       </c>
       <c r="H13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3858,22 +3819,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
         <v>263</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>264</v>
-      </c>
-      <c r="C2" t="s">
-        <v>265</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
       </c>
       <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
         <v>266</v>
-      </c>
-      <c r="F2" t="s">
-        <v>267</v>
       </c>
       <c r="G2" s="1">
         <v>42428</v>
@@ -3882,24 +3843,24 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
         <v>269</v>
-      </c>
-      <c r="C3" t="s">
-        <v>270</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -3911,27 +3872,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="1">
         <v>42428</v>
@@ -3940,27 +3901,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G5" s="1">
         <v>42428</v>
@@ -3969,114 +3930,114 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
         <v>331</v>
-      </c>
-      <c r="B6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" t="s">
-        <v>333</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G6" s="1">
         <v>42428</v>
       </c>
       <c r="H6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s">
         <v>294</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>295</v>
-      </c>
-      <c r="C7" t="s">
-        <v>296</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
       </c>
       <c r="E7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" t="s">
         <v>297</v>
-      </c>
-      <c r="F7" t="s">
-        <v>298</v>
       </c>
       <c r="G7" s="1">
         <v>42428</v>
       </c>
       <c r="H7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
         <v>301</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>302</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>303</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>304</v>
-      </c>
-      <c r="F8" t="s">
-        <v>305</v>
       </c>
       <c r="G8" s="1">
         <v>42428</v>
       </c>
       <c r="H8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" t="s">
         <v>285</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>286</v>
       </c>
-      <c r="D9" t="s">
-        <v>287</v>
-      </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G9" s="1">
         <v>42428</v>
@@ -4085,27 +4046,27 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G10" s="1">
         <v>42428</v>
@@ -4114,94 +4075,94 @@
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" t="s">
         <v>314</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>315</v>
       </c>
-      <c r="C11" t="s">
-        <v>316</v>
-      </c>
       <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" t="s">
         <v>317</v>
-      </c>
-      <c r="E11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F11" t="s">
-        <v>319</v>
       </c>
       <c r="G11" s="1">
         <v>42428</v>
       </c>
       <c r="H11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" t="s">
         <v>323</v>
-      </c>
-      <c r="D12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F12" t="s">
-        <v>325</v>
       </c>
       <c r="G12" s="1">
         <v>42428</v>
       </c>
       <c r="H12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G13" s="1">
         <v>42428</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
